--- a/experiment result/128_0.1_40_zs20_kappa_lp.xlsx
+++ b/experiment result/128_0.1_40_zs20_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05821715911005423</v>
+        <v>0.003959010760483205</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.07013060074530023</v>
+        <v>0.02955649067163978</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.08452051081565996</v>
+        <v>0.05411397995192256</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.07737849056872655</v>
+        <v>0.0324888083187253</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.07051773296565242</v>
+        <v>0.009268934647242971</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.09466436172587037</v>
+        <v>0.05261991557908715</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.08370424618037213</v>
+        <v>0.06742961855489168</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.07944145967234217</v>
+        <v>0.01160092578142489</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0727296592258963</v>
+        <v>0.04300457362972003</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.07566196542427452</v>
+        <v>0.1396767029142393</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.08370788999007193</v>
+        <v>0.02450558354667543</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.09779734866391995</v>
+        <v>0.1406134179316688</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.08553969685409604</v>
+        <v>0.01689886452104654</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.08030427486631322</v>
+        <v>0.02405526577599506</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.07457665473200427</v>
+        <v>0.04929745669420485</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.08992732076954629</v>
+        <v>0.04377777229115038</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.07999751988289887</v>
+        <v>0.02977916448697583</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.07981090578389266</v>
+        <v>0.003125610504999309</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0718569437091949</v>
+        <v>0.1271174040107839</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07121084186931119</v>
+        <v>0.02469507088679497</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.06110002583466394</v>
+        <v>0.01294822952019092</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0668290291024575</v>
+        <v>0.01332760643793882</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.08258713899509153</v>
+        <v>0.0722380655832143</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.04764750040973441</v>
+        <v>0.01841257299879647</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.05494562007908636</v>
+        <v>0.001610010752956898</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.09102214950309437</v>
+        <v>0.03789293675660154</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.09122035270749358</v>
+        <v>0.009350895734385115</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.06039612449269208</v>
+        <v>0.05061879674033569</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.06688975143401843</v>
+        <v>0.0515163428660966</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.09029443131009279</v>
+        <v>0.05133634888707923</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.03725688577637841</v>
+        <v>0.0004043251378383356</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.06944016232017065</v>
+        <v>0.007508606638399353</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0909436848812783</v>
+        <v>0.09416214334199552</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.05764219811378649</v>
+        <v>0.03319028240276707</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.07619536258286352</v>
+        <v>0.02489570180327162</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.08039882779125387</v>
+        <v>0.1128718538370724</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.06637803566612996</v>
+        <v>0.02520423053688051</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0848387552008677</v>
+        <v>0.008933353832034977</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.06545447535574328</v>
+        <v>0.03213074026534228</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.07629500382975775</v>
+        <v>0.05776847572081649</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.08041479592924239</v>
+        <v>0.08261394160268049</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0544733827781622</v>
+        <v>0.06038667054160272</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.07395016382417481</v>
+        <v>0.1159516340589112</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.07355941089999433</v>
+        <v>0.05879724093553122</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.06636330092410907</v>
+        <v>0.08598155514810164</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.09069284653969731</v>
+        <v>0.08498019239702451</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0772506787104231</v>
+        <v>0.153978685745855</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.0698476946837627</v>
+        <v>0.0142370683764572</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.06896883447679746</v>
+        <v>0.01065463799218809</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.07168832243462078</v>
+        <v>0.004391395525442157</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.07362617564975124</v>
+        <v>0.0263435978957826</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.07379716207975673</v>
+        <v>0.05183208488931616</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.04540288016254278</v>
+        <v>0.004545154429039825</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.05298789363414955</v>
+        <v>0.005586435623139651</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.07429368057869755</v>
+        <v>0.03746131771700535</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0717247831328777</v>
+        <v>0.05711547645872106</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.07551790010641574</v>
+        <v>0.03474666732502669</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.083359347762755</v>
+        <v>0.04513044930055202</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.07126849836864377</v>
+        <v>0.02407339429796698</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.09024062317210182</v>
+        <v>0.04251890184332902</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.04048764756303615</v>
+        <v>0.003362848506959182</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.05733237853835023</v>
+        <v>0.008243580567537366</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.06642850292125994</v>
+        <v>0.01950425562552262</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.05947702408303705</v>
+        <v>0.01686833193175476</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.06834012546101433</v>
+        <v>0.02073181732992326</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.07885322793204068</v>
+        <v>0.04718725709153078</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.07781717676981986</v>
+        <v>0.03170213828889289</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.05471943868694704</v>
+        <v>0.02773530716000395</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.06403546374117622</v>
+        <v>0.02813018429277532</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.05734530488780538</v>
+        <v>0.01988819246728668</v>
       </c>
     </row>
   </sheetData>
